--- a/story_xlsx_files_postpilotiiedits/42.xlsx
+++ b/story_xlsx_files_postpilotiiedits/42.xlsx
@@ -107,7 +107,7 @@
     <t>She stopped packing, and said with a smile, “Yes I would love that.”</t>
   </si>
   <si>
-    <t xml:space="preserve">On the concourse, they were running to get to Anna’s gate, J37, which was at the end of the terminal. </t>
+    <t xml:space="preserve">On the concourse, they had to run to get to Anna’s gate, J37, which was at the end of the terminal. </t>
   </si>
   <si>
     <t>David took her suitcase, grabbed her hand, and weaved crowd of people.</t>

--- a/story_xlsx_files_postpilotiiedits/42.xlsx
+++ b/story_xlsx_files_postpilotiiedits/42.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
@@ -71,10 +71,7 @@
     <t xml:space="preserve">“Don't worry,” said David, "let me help you get to your gate." </t>
   </si>
   <si>
-    <t xml:space="preserve">He waved off her half-hearted protests. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Really- I have plenty of time and nothing better to do.” he said. </t>
+    <t xml:space="preserve">She worried that he would be late for his flight, and he assured her that he had time. </t>
   </si>
   <si>
     <t>At security, the line was not long, but, since Anna’s flight departure was close at hand, the security guard allowed them to go to the front of the line.</t>
@@ -116,7 +113,7 @@
     <t>People passing them were giving them funny looks because Anna appeared so bewildered on account of David’s help.</t>
   </si>
   <si>
-    <t>Before getting to the gate, explaining that she would sprint the rest of the way, Anna fished out a crumpled business card from her pocket and handed it to David, who handed her the suitcase.</t>
+    <t>Before getting to the gate, explaining that she would sprint the rest of the way, Anna fished out a crumpled business card from her pocket and handed it to David, who handed her her suitcase.</t>
   </si>
   <si>
     <t>She gave him one last embarrassed smile, thanked him, and hurried away.</t>
@@ -1423,7 +1420,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1679,7 +1676,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="44.05" customHeight="1">
+    <row r="17" ht="68.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1694,12 +1691,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="56.05" customHeight="1">
+    <row r="18" ht="116.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1709,7 +1706,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="116.05" customHeight="1">
+    <row r="19" ht="80.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1724,7 +1721,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="80.05" customHeight="1">
+    <row r="20" ht="116.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1739,7 +1736,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="116.05" customHeight="1">
+    <row r="21" ht="44.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1754,7 +1751,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="44.05" customHeight="1">
+    <row r="22" ht="128.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1769,7 +1766,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="128.05" customHeight="1">
+    <row r="23" ht="56.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1784,7 +1781,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="56.05" customHeight="1">
+    <row r="24" ht="92.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1799,7 +1796,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="92.05" customHeight="1">
+    <row r="25" ht="116.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1807,14 +1804,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="116.05" customHeight="1">
+    <row r="26" ht="80.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1829,7 +1826,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="80.05" customHeight="1">
+    <row r="27" ht="56.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1844,12 +1841,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="56.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1859,7 +1856,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="80.05" customHeight="1">
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1874,7 +1871,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
+    <row r="30" ht="104.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1889,7 +1886,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="104.05" customHeight="1">
+    <row r="31" ht="164.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1897,14 +1894,14 @@
         <v>3</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="164.05" customHeight="1">
+    <row r="32" ht="68.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1919,7 +1916,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="68.05" customHeight="1">
+    <row r="33" ht="92.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1934,12 +1931,12 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="92.05" customHeight="1">
+    <row r="34" ht="80.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
       <c r="B34" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="10">
         <v>4</v>
@@ -1949,7 +1946,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="80.05" customHeight="1">
+    <row r="35" ht="104.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -1979,16 +1976,10 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="104.05" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -2030,15 +2021,6 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
